--- a/branches/cleanup/StructureDefinition-hiv-episode-of-care.xlsx
+++ b/branches/cleanup/StructureDefinition-hiv-episode-of-care.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:35:13+00:00</t>
+    <t>2023-03-03T15:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile is used to record the enrolment type at the time of the encounter.</t>
+    <t>This profile is used to enrol the patient into HIV care.</t>
   </si>
   <si>
     <t>Purpose</t>
